--- a/biology/Botanique/Salvia_nemorosa/Salvia_nemorosa.xlsx
+++ b/biology/Botanique/Salvia_nemorosa/Salvia_nemorosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauge des forêts
-La Sauge des forêts[1] (Salvia nemorosa) est une plante vivace de la famille des Lamiaceae. Cette plante herbacée pérenne est originaire de l'Europe centrale et de l'ouest de l'Asie.
+La Sauge des forêts (Salvia nemorosa) est une plante vivace de la famille des Lamiaceae. Cette plante herbacée pérenne est originaire de l'Europe centrale et de l'ouest de l'Asie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvia nemorosa peut mesurer jusqu'à 60 cm de hauteur.
 Les feuilles sont ovales, opposées, légèrement dentelées, et dégagent une forte odeur aromatique dès qu’on les effleure. 
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La sauge des forêts est une plante aromatique de plein soleil facile de culture une fois bien installée, c'est-à-dire 2 à 3 ans après sa plantation. On pourra alors la diviser.
 Elle apprécie les sols drainants.
@@ -581,7 +597,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante très florifère, rustique et demandant peu d'entretien, elle est très utilisée par les jardiniers pour agrémenter les massifs. Il en existe des dizaines de cultivars allant du blanc au mauve en passant par le rose et le rouge.
 </t>
@@ -612,9 +630,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude iranienne démontrerait que son extrait aqueux ou alcoolique aurait une action contre la douleur[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude iranienne démontrerait que son extrait aqueux ou alcoolique aurait une action contre la douleur.
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 mai 2011)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 mai 2011) :
 Salvia nemorosa L. (1762)
 sous-espèce Salvia nemorosa subsp. nemorosa
 sous-espèce Salvia nemorosa subsp. pseudosylvestris (Stapf) Bornm. (1907)</t>
